--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.280957999999999</v>
+        <v>3.842093</v>
       </c>
       <c r="H2">
-        <v>18.842874</v>
+        <v>11.526279</v>
       </c>
       <c r="I2">
-        <v>0.6685492943889205</v>
+        <v>0.8773182083458525</v>
       </c>
       <c r="J2">
-        <v>0.7390837911992547</v>
+        <v>0.886145240040679</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>9.491243567211999</v>
+        <v>3.879978598375334</v>
       </c>
       <c r="R2">
-        <v>85.421192104908</v>
+        <v>34.919807385378</v>
       </c>
       <c r="S2">
-        <v>0.01498786460443272</v>
+        <v>0.01187374399721234</v>
       </c>
       <c r="T2">
-        <v>0.01835852689939034</v>
+        <v>0.01366897704702647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.280957999999999</v>
+        <v>3.842093</v>
       </c>
       <c r="H3">
-        <v>18.842874</v>
+        <v>11.526279</v>
       </c>
       <c r="I3">
-        <v>0.6685492943889205</v>
+        <v>0.8773182083458525</v>
       </c>
       <c r="J3">
-        <v>0.7390837911992547</v>
+        <v>0.886145240040679</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>289.8898322893853</v>
+        <v>177.3270407810753</v>
       </c>
       <c r="R3">
-        <v>2609.008490604468</v>
+        <v>1595.943367029678</v>
       </c>
       <c r="S3">
-        <v>0.4577724221054086</v>
+        <v>0.5426668814357309</v>
       </c>
       <c r="T3">
-        <v>0.56072212732264</v>
+        <v>0.6247145928249703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.280957999999999</v>
+        <v>3.842093</v>
       </c>
       <c r="H4">
-        <v>18.842874</v>
+        <v>11.526279</v>
       </c>
       <c r="I4">
-        <v>0.6685492943889205</v>
+        <v>0.8773182083458525</v>
       </c>
       <c r="J4">
-        <v>0.7390837911992547</v>
+        <v>0.886145240040679</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>123.795292275481</v>
+        <v>0.03579165769033334</v>
       </c>
       <c r="R4">
-        <v>742.7717536528859</v>
+        <v>0.322124919213</v>
       </c>
       <c r="S4">
-        <v>0.1954883009957468</v>
+        <v>0.0001095317847445929</v>
       </c>
       <c r="T4">
-        <v>0.1596348035367719</v>
+        <v>0.0001260922799030522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.280957999999999</v>
+        <v>3.842093</v>
       </c>
       <c r="H5">
-        <v>18.842874</v>
+        <v>11.526279</v>
       </c>
       <c r="I5">
-        <v>0.6685492943889205</v>
+        <v>0.8773182083458525</v>
       </c>
       <c r="J5">
-        <v>0.7390837911992547</v>
+        <v>0.886145240040679</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>0.190426084644</v>
+        <v>105.4381105951655</v>
       </c>
       <c r="R5">
-        <v>1.713834761796</v>
+        <v>632.628663570993</v>
       </c>
       <c r="S5">
-        <v>0.0003007066833324231</v>
+        <v>0.3226680511281647</v>
       </c>
       <c r="T5">
-        <v>0.0003683334404523526</v>
+        <v>0.247635577888779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.823241</v>
       </c>
       <c r="I6">
-        <v>0.02920877089461137</v>
+        <v>0.06266066604468346</v>
       </c>
       <c r="J6">
-        <v>0.03229040746919317</v>
+        <v>0.06329111880393738</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>0.4146703334913334</v>
+        <v>0.2771195683624444</v>
       </c>
       <c r="R6">
-        <v>3.732033001422</v>
+        <v>2.494076115262</v>
       </c>
       <c r="S6">
-        <v>0.0006548164916253115</v>
+        <v>0.0008480579796835633</v>
       </c>
       <c r="T6">
-        <v>0.0008020799822352476</v>
+        <v>0.0009762788436034836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.823241</v>
       </c>
       <c r="I7">
-        <v>0.02920877089461137</v>
+        <v>0.06266066604468346</v>
       </c>
       <c r="J7">
-        <v>0.03229040746919317</v>
+        <v>0.06329111880393738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>12.66522269499578</v>
@@ -886,10 +886,10 @@
         <v>113.987004254962</v>
       </c>
       <c r="S7">
-        <v>0.01999997593501282</v>
+        <v>0.03875887666262742</v>
       </c>
       <c r="T7">
-        <v>0.02449782579978073</v>
+        <v>0.0446189673277752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>0.823241</v>
       </c>
       <c r="I8">
-        <v>0.02920877089461137</v>
+        <v>0.06266066604468346</v>
       </c>
       <c r="J8">
-        <v>0.03229040746919317</v>
+        <v>0.06329111880393738</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>5.408588955599833</v>
+        <v>0.002556346247444444</v>
       </c>
       <c r="R8">
-        <v>32.451533733599</v>
+        <v>0.023007116227</v>
       </c>
       <c r="S8">
-        <v>0.008540840659447152</v>
+        <v>7.823084622966648E-06</v>
       </c>
       <c r="T8">
-        <v>0.006974409280580855</v>
+        <v>9.005884258021917E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>0.823241</v>
       </c>
       <c r="I9">
-        <v>0.02920877089461137</v>
+        <v>0.06266066604468346</v>
       </c>
       <c r="J9">
-        <v>0.03229040746919317</v>
+        <v>0.06329111880393738</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>0.008319673546</v>
+        <v>7.530702285141166</v>
       </c>
       <c r="R9">
-        <v>0.074877061914</v>
+        <v>45.184213710847</v>
       </c>
       <c r="S9">
-        <v>1.313780852609147E-05</v>
+        <v>0.0230459083177495</v>
       </c>
       <c r="T9">
-        <v>1.609240659633107E-05</v>
+        <v>0.01768686674830067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08208066666666668</v>
+        <v>0.006443333333333333</v>
       </c>
       <c r="H10">
-        <v>0.246242</v>
+        <v>0.01933</v>
       </c>
       <c r="I10">
-        <v>0.008736720064514394</v>
+        <v>0.001471295373582865</v>
       </c>
       <c r="J10">
-        <v>0.00965847730619474</v>
+        <v>0.001486098635126421</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>0.1240332445293334</v>
+        <v>0.006506868895555556</v>
       </c>
       <c r="R10">
-        <v>1.116299200764</v>
+        <v>0.05856182006</v>
       </c>
       <c r="S10">
-        <v>0.0001958640574640961</v>
+        <v>1.991271176640046E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002399124666842053</v>
+        <v>2.292338458222481E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08208066666666668</v>
+        <v>0.006443333333333333</v>
       </c>
       <c r="H11">
-        <v>0.246242</v>
+        <v>0.01933</v>
       </c>
       <c r="I11">
-        <v>0.008736720064514394</v>
+        <v>0.001471295373582865</v>
       </c>
       <c r="J11">
-        <v>0.00965847730619474</v>
+        <v>0.001486098635126421</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>3.788331444693778</v>
+        <v>0.2973840645622222</v>
       </c>
       <c r="R11">
-        <v>34.094983002244</v>
+        <v>2.67645658106</v>
       </c>
       <c r="S11">
-        <v>0.005982250731182517</v>
+        <v>0.0009100726104367834</v>
       </c>
       <c r="T11">
-        <v>0.007327615632104823</v>
+        <v>0.001047669684145827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08208066666666668</v>
+        <v>0.006443333333333333</v>
       </c>
       <c r="H12">
-        <v>0.246242</v>
+        <v>0.01933</v>
       </c>
       <c r="I12">
-        <v>0.008736720064514394</v>
+        <v>0.001471295373582865</v>
       </c>
       <c r="J12">
-        <v>0.00965847730619474</v>
+        <v>0.001486098635126421</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>1.617778708306334</v>
+        <v>6.002394555555555E-05</v>
       </c>
       <c r="R12">
-        <v>9.706672249838</v>
+        <v>0.0005402155099999999</v>
       </c>
       <c r="S12">
-        <v>0.002554675587906319</v>
+        <v>1.836888903273103E-07</v>
       </c>
       <c r="T12">
-        <v>0.002086135761057565</v>
+        <v>2.114614586828932E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,55 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.006443333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.01933</v>
+      </c>
+      <c r="I13">
+        <v>0.001471295373582865</v>
+      </c>
+      <c r="J13">
+        <v>0.001486098635126421</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.08208066666666668</v>
-      </c>
-      <c r="H13">
-        <v>0.246242</v>
-      </c>
-      <c r="I13">
-        <v>0.008736720064514394</v>
-      </c>
-      <c r="J13">
-        <v>0.00965847730619474</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>0.002488521652</v>
+        <v>0.1768236460183333</v>
       </c>
       <c r="R13">
-        <v>0.022396694868</v>
+        <v>1.06094187611</v>
       </c>
       <c r="S13">
-        <v>3.929687961461852E-06</v>
+        <v>0.0005411263624893535</v>
       </c>
       <c r="T13">
-        <v>4.813446348145629E-06</v>
+        <v>0.000415294104939686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.68981</v>
+        <v>0.1308705</v>
       </c>
       <c r="H14">
-        <v>5.37962</v>
+        <v>0.261741</v>
       </c>
       <c r="I14">
-        <v>0.2863051428683749</v>
+        <v>0.02988347043794252</v>
       </c>
       <c r="J14">
-        <v>0.211007617246251</v>
+        <v>0.02012275958906489</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>4.06460954834</v>
+        <v>0.132160970377</v>
       </c>
       <c r="R14">
-        <v>24.38765729004</v>
+        <v>0.792965822262</v>
       </c>
       <c r="S14">
-        <v>0.006418528525688149</v>
+        <v>0.0004044469547684497</v>
       </c>
       <c r="T14">
-        <v>0.005241339430412701</v>
+        <v>0.000310397806721992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.68981</v>
+        <v>0.1308705</v>
       </c>
       <c r="H15">
-        <v>5.37962</v>
+        <v>0.261741</v>
       </c>
       <c r="I15">
-        <v>0.2863051428683749</v>
+        <v>0.02988347043794252</v>
       </c>
       <c r="J15">
-        <v>0.211007617246251</v>
+        <v>0.02012275958906489</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>124.1448469788067</v>
+        <v>6.040165735326999</v>
       </c>
       <c r="R15">
-        <v>744.86908187284</v>
+        <v>36.24099441196199</v>
       </c>
       <c r="S15">
-        <v>0.1960402917362844</v>
+        <v>0.01848447867007249</v>
       </c>
       <c r="T15">
-        <v>0.1600855565126329</v>
+        <v>0.01418614127253041</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.68981</v>
+        <v>0.1308705</v>
       </c>
       <c r="H16">
-        <v>5.37962</v>
+        <v>0.261741</v>
       </c>
       <c r="I16">
-        <v>0.2863051428683749</v>
+        <v>0.02988347043794252</v>
       </c>
       <c r="J16">
-        <v>0.211007617246251</v>
+        <v>0.02012275958906489</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>53.015131627295</v>
+        <v>0.0012191459545</v>
       </c>
       <c r="R16">
-        <v>212.06052650918</v>
+        <v>0.007314875727</v>
       </c>
       <c r="S16">
-        <v>0.08371754546063988</v>
+        <v>3.730903816075572E-06</v>
       </c>
       <c r="T16">
-        <v>0.04557556250721037</v>
+        <v>2.86332817677802E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.68981</v>
+        <v>0.1308705</v>
       </c>
       <c r="H17">
-        <v>5.37962</v>
+        <v>0.261741</v>
       </c>
       <c r="I17">
-        <v>0.2863051428683749</v>
+        <v>0.02988347043794252</v>
       </c>
       <c r="J17">
-        <v>0.211007617246251</v>
+        <v>0.02012275958906489</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.08154965957999999</v>
+        <v>3.59146388508675</v>
       </c>
       <c r="R17">
-        <v>0.48929795748</v>
+        <v>14.365855540347</v>
       </c>
       <c r="S17">
-        <v>0.0001287771457625389</v>
+        <v>0.0109908139092855</v>
       </c>
       <c r="T17">
-        <v>0.0001051587959950422</v>
+        <v>0.005623357181635713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.067644</v>
+        <v>0.1255403333333333</v>
       </c>
       <c r="H18">
-        <v>0.202932</v>
+        <v>0.376621</v>
       </c>
       <c r="I18">
-        <v>0.007200071783578897</v>
+        <v>0.02866635979793855</v>
       </c>
       <c r="J18">
-        <v>0.007959706779106372</v>
+        <v>0.02895478293119232</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>0.102217795416</v>
+        <v>0.1267782447135556</v>
       </c>
       <c r="R18">
-        <v>0.9199601587440001</v>
+        <v>1.141004202422</v>
       </c>
       <c r="S18">
-        <v>0.0001614147257953718</v>
+        <v>0.0003879744137699693</v>
       </c>
       <c r="T18">
-        <v>0.0001977157296040446</v>
+        <v>0.0004466336277673094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.067644</v>
+        <v>0.1255403333333333</v>
       </c>
       <c r="H19">
-        <v>0.202932</v>
+        <v>0.376621</v>
       </c>
       <c r="I19">
-        <v>0.007200071783578897</v>
+        <v>0.02866635979793855</v>
       </c>
       <c r="J19">
-        <v>0.007959706779106372</v>
+        <v>0.02895478293119232</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>3.122024986536</v>
+        <v>5.794158498680222</v>
       </c>
       <c r="R19">
-        <v>28.09822487882399</v>
+        <v>52.14742648812199</v>
       </c>
       <c r="S19">
-        <v>0.00493006922206744</v>
+        <v>0.01773163252019203</v>
       </c>
       <c r="T19">
-        <v>0.006038806115343021</v>
+        <v>0.02041254030588129</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.067644</v>
+        <v>0.1255403333333333</v>
       </c>
       <c r="H20">
-        <v>0.202932</v>
+        <v>0.376621</v>
       </c>
       <c r="I20">
-        <v>0.007200071783578897</v>
+        <v>0.02866635979793855</v>
       </c>
       <c r="J20">
-        <v>0.007959706779106372</v>
+        <v>0.02895478293119232</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>1.333237501458</v>
+        <v>0.001169491898555556</v>
       </c>
       <c r="R20">
-        <v>7.999425008747999</v>
+        <v>0.010525427087</v>
       </c>
       <c r="S20">
-        <v>0.002105349316546345</v>
+        <v>3.578949485978373E-06</v>
       </c>
       <c r="T20">
-        <v>0.001719218095462731</v>
+        <v>4.120063426311945E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.067644</v>
+        <v>0.1255403333333333</v>
       </c>
       <c r="H21">
-        <v>0.202932</v>
+        <v>0.376621</v>
       </c>
       <c r="I21">
-        <v>0.007200071783578897</v>
+        <v>0.02866635979793855</v>
       </c>
       <c r="J21">
-        <v>0.007959706779106372</v>
+        <v>0.02895478293119232</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>0.002050830792</v>
+        <v>3.445188742217833</v>
       </c>
       <c r="R21">
-        <v>0.018457477128</v>
+        <v>20.671132453307</v>
       </c>
       <c r="S21">
-        <v>3.238519169741053E-06</v>
+        <v>0.01054317391449057</v>
       </c>
       <c r="T21">
-        <v>3.966838696574463E-06</v>
+        <v>0.008091488934117406</v>
       </c>
     </row>
   </sheetData>
